--- a/IO_sample9.xlsx
+++ b/IO_sample9.xlsx
@@ -19,10 +19,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,8 +70,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,7 +205,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -249,6 +261,14 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -304,6 +324,14 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F99"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
